--- a/doc/bom/打印机打印部件与说明书对应表.xlsx
+++ b/doc/bom/打印机打印部件与说明书对应表.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>卧龙300打印机说明书对照打印物</t>
   </si>
   <si>
+    <t xml:space="preserve">     打印文件序号</t>
+  </si>
+  <si>
     <t>页数</t>
   </si>
   <si>
@@ -193,15 +196,24 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>z_motor_mount_a_</t>
+    <t>[a]_belt_tensioner_a_x2和[a]_belt_tensioner_b_x2</t>
+  </si>
+  <si>
+    <t>z_motor_mount_a_x2和z_motor_mount_b_x2</t>
+  </si>
+  <si>
+    <t>z惰轮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a]_z_tensioner_</t>
     </r>
     <r>
       <rPr>
@@ -211,6 +223,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>x4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_9mm</t>
+    </r>
+  </si>
+  <si>
+    <t>惰轮固定</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z_tensioner_bracket_a_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>x2</t>
     </r>
     <r>
@@ -226,11 +273,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>z_motor_mount_b_</t>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z_tensioner_bracket_b_</t>
     </r>
     <r>
       <rPr>
@@ -244,15 +292,72 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[a]_belt_tensioner_a_</t>
+    <t>龙门架/前托辊</t>
+  </si>
+  <si>
+    <t>front_idler_left_lower</t>
+  </si>
+  <si>
+    <t>b惰轮</t>
+  </si>
+  <si>
+    <t>ab连接惰轮部分</t>
+  </si>
+  <si>
+    <t>front_idler_left_upper</t>
+  </si>
+  <si>
+    <t>[a]_tensioner_left</t>
+  </si>
+  <si>
+    <t>front_idler_right_lower</t>
+  </si>
+  <si>
+    <t>a惰轮</t>
+  </si>
+  <si>
+    <t>front_idler_right_upper</t>
+  </si>
+  <si>
+    <t>[a]_tensioner_right</t>
+  </si>
+  <si>
+    <t>龙门架/AB_驱动_单元</t>
+  </si>
+  <si>
+    <t>a_drive_frame_lower</t>
+  </si>
+  <si>
+    <t>a驱动</t>
+  </si>
+  <si>
+    <t>ab驱动模块</t>
+  </si>
+  <si>
+    <t>a_drive_frame_upper</t>
+  </si>
+  <si>
+    <t>b_drive_frame_lower</t>
+  </si>
+  <si>
+    <t>b驱动</t>
+  </si>
+  <si>
+    <t>b_drive_frame_upper</t>
+  </si>
+  <si>
+    <t>龙门架</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a]_z_belt_clip_upper_</t>
     </r>
     <r>
       <rPr>
@@ -262,8 +367,180 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>x4</t>
+    </r>
+  </si>
+  <si>
+    <t>皮带</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a]_z_belt_clip_lower_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x4</t>
+    </r>
+  </si>
+  <si>
+    <t>龙门架/x轴/xy关节</t>
+  </si>
+  <si>
+    <t>xy_joint_right_lower_MGN12</t>
+  </si>
+  <si>
+    <t>右轴关节</t>
+  </si>
+  <si>
+    <t>xy_joint_right_upper_MGN12</t>
+  </si>
+  <si>
+    <t>xy_joint_left_lower_MGN12</t>
+  </si>
+  <si>
+    <t>左轴关节</t>
+  </si>
+  <si>
+    <t>xy_joint_left_upper_MGN12</t>
+  </si>
+  <si>
+    <t>龙门架/z关节</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z_joint_upper_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x4</t>
+    </r>
+  </si>
+  <si>
+    <t>固定</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z_joint_lower_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x4</t>
+    </r>
+  </si>
+  <si>
+    <t>电子产品支架</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lrs_200_psu_bracket_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>x2</t>
     </r>
+  </si>
+  <si>
+    <t>24v电源</t>
+  </si>
+  <si>
+    <t>电子产品支架/控制器安装座</t>
+  </si>
+  <si>
+    <t>主板</t>
+  </si>
+  <si>
+    <t>Z_限位</t>
+  </si>
+  <si>
+    <t>nozzle_probe</t>
+  </si>
+  <si>
+    <t>z限位</t>
+  </si>
+  <si>
+    <t>[a]_endstop_pod_D2F_switch</t>
+  </si>
+  <si>
+    <t>xy限位</t>
+  </si>
+  <si>
+    <t>wago_221-415_mount_3x5</t>
+  </si>
+  <si>
+    <t>备用电源</t>
+  </si>
+  <si>
+    <t>PSU_stabilizer_50mm</t>
+  </si>
+  <si>
+    <t>24v电源支架</t>
+  </si>
+  <si>
+    <t>裙边/300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>front_skirt_a_300</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -282,7 +559,50 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[a]_belt_tensioner_b_</t>
+      <t>front_skirt_b_300</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>side_skirt_a_300_x2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>side_skirt_b_300_x2</t>
+    </r>
+  </si>
+  <si>
+    <t>rear_center_skirt_300_x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">裙边 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a]_belt_guard_a_</t>
     </r>
     <r>
       <rPr>
@@ -294,20 +614,25 @@
       </rPr>
       <t>x2</t>
     </r>
-  </si>
-  <si>
-    <t>z惰轮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[a]_z_tensioner_</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a]_belt_guard_b_</t>
     </r>
     <r>
       <rPr>
@@ -317,32 +642,168 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>x2</t>
+    </r>
+  </si>
+  <si>
+    <t>裙边</t>
+  </si>
+  <si>
+    <t>power_inlet_filtered</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a]_fan_grill_a_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a]_fan_grill_b_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a]_fan_grill_retainer_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[a]_fan_grill_open_optional_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>side_fan_support_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x2</t>
+    </r>
+  </si>
+  <si>
+    <t>安装隔板</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bottom_panel_clip_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>x4</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_9mm</t>
-    </r>
-  </si>
-  <si>
-    <t>惰轮固定</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>z_tensioner_bracket_a_</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bottom_panel_hinge_</t>
     </r>
     <r>
       <rPr>
@@ -354,25 +815,17 @@
       </rPr>
       <t>x2</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>z_tensioner_bracket_b_</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z_belt_cover_a_</t>
     </r>
     <r>
       <rPr>
@@ -386,72 +839,15 @@
     </r>
   </si>
   <si>
-    <t>龙门架/前托辊</t>
-  </si>
-  <si>
-    <t>front_idler_left_lower</t>
-  </si>
-  <si>
-    <t>b惰轮</t>
-  </si>
-  <si>
-    <t>ab连接惰轮部分</t>
-  </si>
-  <si>
-    <t>front_idler_left_upper</t>
-  </si>
-  <si>
-    <t>[a]_tensioner_left</t>
-  </si>
-  <si>
-    <t>front_idler_right_lower</t>
-  </si>
-  <si>
-    <t>a惰轮</t>
-  </si>
-  <si>
-    <t>front_idler_right_upper</t>
-  </si>
-  <si>
-    <t>[a]_tensioner_right</t>
-  </si>
-  <si>
-    <t>龙门架/AB_驱动_单元</t>
-  </si>
-  <si>
-    <t>a_drive_frame_lower</t>
-  </si>
-  <si>
-    <t>a驱动</t>
-  </si>
-  <si>
-    <t>ab驱动模块</t>
-  </si>
-  <si>
-    <t>a_drive_frame_upper</t>
-  </si>
-  <si>
-    <t>b_drive_frame_lower</t>
-  </si>
-  <si>
-    <t>b驱动</t>
-  </si>
-  <si>
-    <t>b_drive_frame_upper</t>
-  </si>
-  <si>
-    <t>龙门架</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[a]_z_belt_clip_upper_</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z_belt_cover_b_</t>
     </r>
     <r>
       <rPr>
@@ -461,398 +857,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>x4</t>
-    </r>
-  </si>
-  <si>
-    <t>皮带</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[a]_z_belt_clip_lower_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x4</t>
-    </r>
-  </si>
-  <si>
-    <t>龙门架/x轴/xy关节</t>
-  </si>
-  <si>
-    <t>xy_joint_right_lower_MGN12</t>
-  </si>
-  <si>
-    <t>右轴关节</t>
-  </si>
-  <si>
-    <t>xy_joint_right_upper_MGN12</t>
-  </si>
-  <si>
-    <t>xy_joint_left_lower_MGN12</t>
-  </si>
-  <si>
-    <t>左轴关节</t>
-  </si>
-  <si>
-    <t>xy_joint_left_upper_MGN12</t>
-  </si>
-  <si>
-    <t>龙门架/z关节</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>z_joint_upper_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x4</t>
-    </r>
-  </si>
-  <si>
-    <t>固定</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>z_joint_lower_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x4</t>
-    </r>
-  </si>
-  <si>
-    <t>电子产品支架</t>
-  </si>
-  <si>
-    <r>
-      <t>lrs_200_psu_bracket_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>x2</t>
     </r>
   </si>
   <si>
-    <t>24v电源</t>
-  </si>
-  <si>
-    <t>电子产品支架/控制器安装座</t>
-  </si>
-  <si>
-    <t>主板</t>
-  </si>
-  <si>
-    <t>Z_限位</t>
-  </si>
-  <si>
-    <t>nozzle_probe</t>
-  </si>
-  <si>
-    <t>z限位</t>
-  </si>
-  <si>
-    <t>[a]_endstop_pod_D2F_switch</t>
-  </si>
-  <si>
-    <t>xy限位</t>
-  </si>
-  <si>
-    <t>wago_221-415_mount_3x5</t>
-  </si>
-  <si>
-    <t>备用电源</t>
-  </si>
-  <si>
-    <t>PSU_stabilizer_50mm</t>
-  </si>
-  <si>
-    <t>24v电源支架</t>
-  </si>
-  <si>
-    <t>裙边/300</t>
-  </si>
-  <si>
-    <r>
-      <t>front_skirt_a_300</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>front_skirt_b_300</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">裙边 </t>
-  </si>
-  <si>
-    <r>
-      <t>[a]_belt_guard_a_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[a]_belt_guard_b_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-  </si>
-  <si>
-    <t>裙边</t>
-  </si>
-  <si>
-    <t>power_inlet_filtered</t>
-  </si>
-  <si>
-    <t>rear_center_skirt_300</t>
-  </si>
-  <si>
-    <r>
-      <t>[a]_fan_grill_a_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[a]_fan_grill_b_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[a]_fan_grill_retainer_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[a]_fan_grill_open_optional_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>side_fan_support_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-  </si>
-  <si>
-    <t>安装隔板</t>
-  </si>
-  <si>
-    <r>
-      <t>bottom_panel_clip_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>bottom_panel_hinge_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>z_belt_cover_a_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>z_belt_cover_b_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x2</t>
-    </r>
-  </si>
-  <si>
     <t>corner_panel_clip_4mm</t>
   </si>
   <si>
@@ -875,6 +883,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[a]_exhaust_filter_mount_</t>
     </r>
     <r>
@@ -908,10 +923,75 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1060,33 +1140,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1401,148 +1467,220 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2069,10 +2207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2084,776 +2222,899 @@
     <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
         <v>31</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:9">
+      <c r="B7" s="13"/>
+      <c r="C7" s="15">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:9">
+      <c r="B8" s="17">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="19">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="21">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C11" s="22">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="8">
         <v>7</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9">
-      <c r="C5">
+      <c r="C17" s="9">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="11">
+        <v>8</v>
+      </c>
+      <c r="C21" s="12">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="C6">
+      <c r="E21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="C11">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="C13">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="3:9">
-      <c r="C14">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15">
-        <v>69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:9">
-      <c r="C22">
+    <row r="22" spans="2:9">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12">
         <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="13">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14">
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
       <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="C25">
+        <v>42</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14">
         <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="C26">
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14">
         <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="C27">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="17">
+        <v>10</v>
+      </c>
+      <c r="C27" s="23">
         <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="1">
+      <c r="F27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:9">
-      <c r="C28">
+    <row r="28" spans="2:9">
+      <c r="B28" s="17"/>
+      <c r="C28" s="23">
         <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="3:9">
-      <c r="C29">
+        <v>46</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="19">
+        <v>11</v>
+      </c>
+      <c r="C29" s="20">
         <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E29" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:9">
-      <c r="C30">
+    <row r="30" spans="2:9">
+      <c r="B30" s="19"/>
+      <c r="C30" s="24">
         <v>182</v>
       </c>
-      <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D30" s="25" t="s">
         <v>53</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:9">
-      <c r="C31">
+    <row r="31" spans="2:9">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20">
         <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:9">
-      <c r="C32">
+    <row r="32" spans="2:9">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20">
         <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:9">
-      <c r="C33">
+    <row r="33" spans="2:9">
+      <c r="B33" s="19"/>
+      <c r="C33" s="24">
         <v>193</v>
       </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>60</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:9">
-      <c r="C34">
+    <row r="34" spans="2:9">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20">
         <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
-      <c r="C35">
+    <row r="35" spans="2:5">
+      <c r="B35" s="8">
+        <v>12</v>
+      </c>
+      <c r="C35" s="9">
         <v>247</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36">
+      <c r="E35" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="11">
+        <v>13</v>
+      </c>
+      <c r="C36" s="12">
         <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
-      <c r="C37">
+    <row r="37" spans="2:5">
+      <c r="B37" s="13">
+        <v>14</v>
+      </c>
+      <c r="C37" s="14">
+        <v>254</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="17">
+        <v>15</v>
+      </c>
+      <c r="C38" s="23">
+        <v>247</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="17"/>
+      <c r="C39" s="23">
         <v>253</v>
       </c>
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9">
-      <c r="C38">
-        <v>254</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39">
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="19">
+        <v>16</v>
+      </c>
+      <c r="C40" s="20">
         <v>255</v>
       </c>
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D40" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40">
+      <c r="E40" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="19"/>
+      <c r="C41" s="20">
         <v>255</v>
       </c>
-      <c r="D40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41">
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="19"/>
+      <c r="C42" s="20">
         <v>255</v>
       </c>
-      <c r="D41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42">
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="21">
+        <v>17</v>
+      </c>
+      <c r="C43" s="22">
         <v>257</v>
       </c>
-      <c r="D42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43">
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="8">
+        <v>18</v>
+      </c>
+      <c r="C44" s="9">
         <v>263</v>
       </c>
-      <c r="D43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44">
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9">
         <v>263</v>
       </c>
-      <c r="D44" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="C45">
+      <c r="E45" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9">
         <v>264</v>
       </c>
-      <c r="D45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46">
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9">
         <v>264</v>
       </c>
-      <c r="D46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="C47">
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="11">
+        <v>19</v>
+      </c>
+      <c r="C48" s="12">
         <v>269</v>
       </c>
-      <c r="D47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48">
-        <v>269</v>
-      </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F48">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="3:5">
-      <c r="C49">
-        <v>280</v>
+    <row r="49" spans="2:6">
+      <c r="B49" s="11"/>
+      <c r="C49" s="12">
+        <v>269</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E49" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="50" spans="3:5">
-      <c r="C50">
+      <c r="F49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="13">
+        <v>20</v>
+      </c>
+      <c r="C50" s="14">
+        <v>280</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="26">
+        <v>21</v>
+      </c>
+      <c r="C51" s="27">
         <v>282</v>
       </c>
-      <c r="D50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D51" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="3:5">
-      <c r="C51">
+      <c r="E51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="26"/>
+      <c r="C52" s="27">
         <v>282</v>
       </c>
-      <c r="D51" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5">
-      <c r="C52">
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="26"/>
+      <c r="C53" s="27">
         <v>284</v>
       </c>
-      <c r="D52" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5">
-      <c r="C53">
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="26"/>
+      <c r="C54" s="27">
         <v>285</v>
       </c>
-      <c r="D53" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5">
-      <c r="C54">
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="19">
+        <v>22</v>
+      </c>
+      <c r="C55" s="20">
         <v>287</v>
       </c>
-      <c r="D54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5">
-      <c r="C55">
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="19"/>
+      <c r="C56" s="20">
         <v>288</v>
       </c>
-      <c r="D55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D56" t="s">
         <v>89</v>
       </c>
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="36">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F13"/>
@@ -2871,11 +3132,11 @@
     <mergeCell ref="I17:I20"/>
     <mergeCell ref="I23:I26"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A1:B3"/>
     <mergeCell ref="G4:H8"/>
     <mergeCell ref="G11:H16"/>
     <mergeCell ref="G17:H20"/>
     <mergeCell ref="G23:H26"/>
+    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/bom/打印机打印部件与说明书对应表.xlsx
+++ b/doc/bom/打印机打印部件与说明书对应表.xlsx
@@ -564,6 +564,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>side_skirt_a_300_x2</t>
     </r>
     <r>
@@ -1597,7 +1604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1619,65 +1626,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2209,8 +2186,8 @@
   <sheetPr/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2250,17 +2227,17 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -2275,16 +2252,16 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3"/>
@@ -2293,16 +2270,16 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3"/>
@@ -2310,14 +2287,14 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:9">
-      <c r="B7" s="13"/>
-      <c r="C7" s="15">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
         <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="3"/>
@@ -2325,16 +2302,16 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:9">
-      <c r="B8" s="17">
+      <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="12">
         <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="3"/>
@@ -2342,16 +2319,16 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="19">
+      <c r="B9" s="13">
         <v>5</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="13">
         <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2362,30 +2339,30 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13">
         <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="21">
+      <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="14">
         <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -2400,8 +2377,8 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14">
         <v>65</v>
       </c>
       <c r="D12" t="s">
@@ -2416,8 +2393,8 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14">
         <v>66</v>
       </c>
       <c r="D13" t="s">
@@ -2432,8 +2409,8 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14">
         <v>69</v>
       </c>
       <c r="D14" t="s">
@@ -2452,8 +2429,8 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14">
         <v>69</v>
       </c>
       <c r="D15" t="s">
@@ -2468,8 +2445,8 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="21"/>
-      <c r="C16" s="22">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14">
         <v>70</v>
       </c>
       <c r="D16" t="s">
@@ -2484,10 +2461,10 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>7</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>74</v>
       </c>
       <c r="D17" t="s">
@@ -2508,8 +2485,8 @@
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
         <v>74</v>
       </c>
       <c r="D18" t="s">
@@ -2524,8 +2501,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
         <v>78</v>
       </c>
       <c r="D19" t="s">
@@ -2542,8 +2519,8 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
         <v>78</v>
       </c>
       <c r="D20" t="s">
@@ -2558,16 +2535,16 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2578,14 +2555,14 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9">
         <v>91</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="3"/>
@@ -2594,10 +2571,10 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>9</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="10">
         <v>97</v>
       </c>
       <c r="D23" t="s">
@@ -2616,8 +2593,8 @@
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10">
         <v>97</v>
       </c>
       <c r="D24" t="s">
@@ -2632,8 +2609,8 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10">
         <v>99</v>
       </c>
       <c r="D25" t="s">
@@ -2650,8 +2627,8 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10">
         <v>99</v>
       </c>
       <c r="D26" t="s">
@@ -2666,16 +2643,16 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="17">
+      <c r="B27" s="12">
         <v>10</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="12">
         <v>111</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -2686,30 +2663,30 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="17"/>
-      <c r="C28" s="23">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12">
         <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="19">
+      <c r="B29" s="13">
         <v>11</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="13">
         <v>181</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F29" t="s">
@@ -2720,15 +2697,15 @@
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="19"/>
-      <c r="C30" s="24">
+      <c r="B30" s="13"/>
+      <c r="C30" s="15">
         <v>182</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
         <v>54</v>
       </c>
       <c r="I30">
@@ -2736,8 +2713,8 @@
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13">
         <v>186</v>
       </c>
       <c r="D31" t="s">
@@ -2754,8 +2731,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13">
         <v>190</v>
       </c>
       <c r="D32" t="s">
@@ -2772,17 +2749,17 @@
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="19"/>
-      <c r="C33" s="24">
+      <c r="B33" s="13"/>
+      <c r="C33" s="15">
         <v>193</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="16" t="s">
         <v>61</v>
       </c>
       <c r="I33">
@@ -2790,8 +2767,8 @@
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13">
         <v>197</v>
       </c>
       <c r="D34" t="s">
@@ -2808,64 +2785,64 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>12</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="7">
         <v>247</v>
       </c>
       <c r="D35" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="11">
+      <c r="B36" s="9">
         <v>13</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="9">
         <v>247</v>
       </c>
       <c r="D36" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="13">
+      <c r="B37" s="10">
         <v>14</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="10">
         <v>254</v>
       </c>
       <c r="D37" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="17">
+      <c r="B38" s="12">
         <v>15</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="12">
         <v>247</v>
       </c>
       <c r="D38" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="17"/>
-      <c r="C39" s="23">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12">
         <v>253</v>
       </c>
       <c r="D39" t="s">
@@ -2876,112 +2853,112 @@
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="19">
+      <c r="B40" s="13">
         <v>16</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="13">
         <v>255</v>
       </c>
       <c r="D40" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="19"/>
-      <c r="C41" s="20">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13">
         <v>255</v>
       </c>
       <c r="D41" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13">
         <v>255</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="21">
+      <c r="B43" s="14">
         <v>17</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="14">
         <v>257</v>
       </c>
       <c r="D43" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>18</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="7">
         <v>263</v>
       </c>
       <c r="D44" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7">
         <v>263</v>
       </c>
       <c r="D45" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7">
         <v>264</v>
       </c>
       <c r="D46" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7">
         <v>264</v>
       </c>
       <c r="D47" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>19</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="9">
         <v>269</v>
       </c>
       <c r="D48" t="s">
@@ -2995,8 +2972,8 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="11"/>
-      <c r="C49" s="12">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9">
         <v>269</v>
       </c>
       <c r="D49" t="s">
@@ -3010,10 +2987,10 @@
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="13">
+      <c r="B50" s="10">
         <v>20</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="10">
         <v>280</v>
       </c>
       <c r="D50" t="s">
@@ -3024,10 +3001,10 @@
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="26">
+      <c r="B51" s="17">
         <v>21</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="17">
         <v>282</v>
       </c>
       <c r="D51" t="s">
@@ -3038,8 +3015,8 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="26"/>
-      <c r="C52" s="27">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17">
         <v>282</v>
       </c>
       <c r="D52" t="s">
@@ -3050,8 +3027,8 @@
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="26"/>
-      <c r="C53" s="27">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17">
         <v>284</v>
       </c>
       <c r="D53" t="s">
@@ -3062,22 +3039,22 @@
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="26"/>
-      <c r="C54" s="27">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17">
         <v>285</v>
       </c>
       <c r="D54" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="19">
+      <c r="B55" s="13">
         <v>22</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="13">
         <v>287</v>
       </c>
       <c r="D55" t="s">
@@ -3088,8 +3065,8 @@
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13">
         <v>288</v>
       </c>
       <c r="D56" t="s">

--- a/doc/bom/打印机打印部件与说明书对应表.xlsx
+++ b/doc/bom/打印机打印部件与说明书对应表.xlsx
@@ -2186,8 +2186,8 @@
   <sheetPr/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/doc/bom/打印机打印部件与说明书对应表.xlsx
+++ b/doc/bom/打印机打印部件与说明书对应表.xlsx
@@ -656,7 +656,7 @@
     <t>裙边</t>
   </si>
   <si>
-    <t>power_inlet_filtered</t>
+    <t>power_inlet_IECGS_1mm</t>
   </si>
   <si>
     <r>
@@ -2186,8 +2186,8 @@
   <sheetPr/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:F49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
